--- a/tables/TableS3_prey_stocks_all.xlsx
+++ b/tables/TableS3_prey_stocks_all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/Rutgers/projects/forage_fish/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7C103AEE-9479-9A46-A4FC-C2A42416655A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E74E87-2B4F-8C49-8F3B-4354E21AE62D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="940" windowWidth="25040" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25980" yWindow="4240" windowWidth="42340" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableS3_prey_stocks_all" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="197">
   <si>
     <t>HERR2224IIIa</t>
   </si>
@@ -457,23 +457,167 @@
     <t>1967-2005</t>
   </si>
   <si>
-    <t>Europe (n=24)</t>
-  </si>
-  <si>
     <t>Humboldt Current (n=4)</t>
   </si>
   <si>
-    <t>USA/Canada East (n=12)</t>
-  </si>
-  <si>
-    <t>USA/Canada West (n=4)</t>
+    <t>ATLHERRROST</t>
+  </si>
+  <si>
+    <t>Rost</t>
+  </si>
+  <si>
+    <t>1975-2004</t>
+  </si>
+  <si>
+    <t>SANDEELSA4</t>
+  </si>
+  <si>
+    <t>Lesser sand-eel (Ammodytes spp.)</t>
+  </si>
+  <si>
+    <t>Sandeel Area 4</t>
+  </si>
+  <si>
+    <t>1993-2015</t>
+  </si>
+  <si>
+    <t>SANDEELSA7</t>
+  </si>
+  <si>
+    <t>Sandeel Area 7</t>
+  </si>
+  <si>
+    <t>1976-2004</t>
+  </si>
+  <si>
+    <t>WHITVIIek</t>
+  </si>
+  <si>
+    <t>Celtic Sea</t>
+  </si>
+  <si>
+    <t>1999-2016</t>
+  </si>
+  <si>
+    <t>EANCHOROBBEN_SPWN</t>
+  </si>
+  <si>
+    <t>European anchovy (Engraulis encrasicolus)</t>
+  </si>
+  <si>
+    <t>Robben Island</t>
+  </si>
+  <si>
+    <t>1989-2004</t>
+  </si>
+  <si>
+    <t>EANCHOROBBEN_YOY</t>
+  </si>
+  <si>
+    <t>PSARDROBBEN_SPWN</t>
+  </si>
+  <si>
+    <t>1989-2005</t>
+  </si>
+  <si>
+    <t>PSARDROBBEN_YOY</t>
+  </si>
+  <si>
+    <t>SARDSA</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>ILLEXNAFO3-4</t>
+  </si>
+  <si>
+    <t>Subareas 3+4</t>
+  </si>
+  <si>
+    <t>1970-2015</t>
+  </si>
+  <si>
+    <t>ROCKSEFI1</t>
+  </si>
+  <si>
+    <t>Rockfish spp. (Sebastes spp.)</t>
+  </si>
+  <si>
+    <t>SE Farallon Island</t>
+  </si>
+  <si>
+    <t>1980-1997</t>
+  </si>
+  <si>
+    <t>ROCKSEFI2</t>
+  </si>
+  <si>
+    <t>1983-1997</t>
+  </si>
+  <si>
+    <t>ROCKSEFI3</t>
+  </si>
+  <si>
+    <t>1987-2002</t>
+  </si>
+  <si>
+    <t>WPOLLAI</t>
+  </si>
+  <si>
+    <t>Walleye pollock (Theragra chalcogramma)</t>
+  </si>
+  <si>
+    <t>Aleutian Islands</t>
+  </si>
+  <si>
+    <t>1978-2015</t>
+  </si>
+  <si>
+    <t>WPOLLBOGO</t>
+  </si>
+  <si>
+    <t>Bogoslof</t>
+  </si>
+  <si>
+    <t>1990-2015</t>
+  </si>
+  <si>
+    <t>WPOLLEBS</t>
+  </si>
+  <si>
+    <t>Eastern Bering Sea</t>
+  </si>
+  <si>
+    <t>1964-2015</t>
+  </si>
+  <si>
+    <t>WPOLLGA</t>
+  </si>
+  <si>
+    <t>Gulf of Alaska</t>
+  </si>
+  <si>
+    <t>Europe (n=28)</t>
+  </si>
+  <si>
+    <t>South Africa (n=5)</t>
+  </si>
+  <si>
+    <t>US/Canada East Coast (n=13)</t>
+  </si>
+  <si>
+    <t>US/Canada West Coast (n=11)</t>
+  </si>
+  <si>
+    <t>Index</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -604,6 +748,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -961,15 +1113,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1325,23 +1480,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>133</v>
       </c>
@@ -1360,293 +1521,289 @@
       <c r="F1" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>192</v>
+      </c>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>196</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>148</v>
       </c>
       <c r="F3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F6">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="F7">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>18</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F9">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>24</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F10">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>139</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="F12">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F13">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>33</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F14">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>36</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F15">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>40</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F16">
         <v>35</v>
@@ -1654,27 +1811,27 @@
       <c r="H16"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>44</v>
+      <c r="A17" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F17">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B18" t="s">
@@ -1694,27 +1851,27 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>51</v>
+      <c r="A19" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F19">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B20" t="s">
@@ -1734,34 +1891,34 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>56</v>
+      <c r="A21" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F21">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>60</v>
+      <c r="A22" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B22" t="s">
         <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
@@ -1774,14 +1931,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>62</v>
+      <c r="A23" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="B23" t="s">
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
@@ -1794,478 +1951,823 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>64</v>
+      <c r="A24" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
       </c>
       <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
         <v>67</v>
       </c>
-      <c r="F24">
+      <c r="F27">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B29" t="s">
         <v>69</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C29" t="s">
         <v>15</v>
       </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
         <v>70</v>
       </c>
-      <c r="F25">
+      <c r="F29">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" t="s">
         <v>69</v>
       </c>
-      <c r="C26" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="C30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
         <v>73</v>
       </c>
-      <c r="F26">
+      <c r="F33">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" t="s">
         <v>75</v>
       </c>
-      <c r="C28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" t="s">
-        <v>77</v>
-      </c>
-      <c r="F28">
+      <c r="C34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" t="s">
         <v>75</v>
       </c>
-      <c r="C29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" t="s">
-        <v>82</v>
-      </c>
-      <c r="F30">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="C35" t="s">
         <v>84</v>
       </c>
-      <c r="D31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
         <v>85</v>
       </c>
-      <c r="F31">
+      <c r="F35">
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" t="s">
+        <v>161</v>
+      </c>
+      <c r="D37" t="s">
+        <v>196</v>
+      </c>
+      <c r="E37" t="s">
+        <v>162</v>
+      </c>
+      <c r="F37">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" t="s">
+        <v>161</v>
+      </c>
+      <c r="D38" t="s">
+        <v>196</v>
+      </c>
+      <c r="E38" t="s">
+        <v>162</v>
+      </c>
+      <c r="F38">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" t="s">
+        <v>196</v>
+      </c>
+      <c r="E39" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" t="s">
+        <v>196</v>
+      </c>
+      <c r="E40" t="s">
+        <v>165</v>
+      </c>
+      <c r="F40">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>95</v>
+      </c>
+      <c r="F43">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" t="s">
+        <v>97</v>
+      </c>
+      <c r="F44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B45" t="s">
         <v>1</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C45" t="s">
         <v>87</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D45" t="s">
         <v>3</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E45" t="s">
         <v>88</v>
       </c>
-      <c r="F33">
+      <c r="F45">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B46" t="s">
         <v>1</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C46" t="s">
         <v>87</v>
-      </c>
-      <c r="D34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" t="s">
-        <v>88</v>
-      </c>
-      <c r="F34">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" t="s">
-        <v>92</v>
-      </c>
-      <c r="F35">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" t="s">
-        <v>95</v>
-      </c>
-      <c r="F36">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" t="s">
-        <v>97</v>
-      </c>
-      <c r="F37">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" t="s">
-        <v>100</v>
-      </c>
-      <c r="F38">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" t="s">
-        <v>103</v>
-      </c>
-      <c r="F39">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" t="s">
-        <v>106</v>
-      </c>
-      <c r="F40">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B41" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" t="s">
-        <v>110</v>
-      </c>
-      <c r="F41">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" t="s">
-        <v>113</v>
-      </c>
-      <c r="D42" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" t="s">
-        <v>114</v>
-      </c>
-      <c r="F42">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" t="s">
-        <v>117</v>
-      </c>
-      <c r="D43" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" t="s">
-        <v>118</v>
-      </c>
-      <c r="F43">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B44" t="s">
-        <v>143</v>
-      </c>
-      <c r="C44" t="s">
-        <v>99</v>
-      </c>
-      <c r="D44" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" t="s">
-        <v>144</v>
-      </c>
-      <c r="F44">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B46" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" t="s">
-        <v>121</v>
       </c>
       <c r="D46" t="s">
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="F46">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>123</v>
+      <c r="A47" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="D47" t="s">
         <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="F47">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>127</v>
+      <c r="A48" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="B48" t="s">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="D48" t="s">
         <v>3</v>
       </c>
       <c r="E48" t="s">
+        <v>100</v>
+      </c>
+      <c r="F48">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>106</v>
+      </c>
+      <c r="F49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" t="s">
+        <v>103</v>
+      </c>
+      <c r="F50">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" t="s">
+        <v>110</v>
+      </c>
+      <c r="F51">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" t="s">
+        <v>114</v>
+      </c>
+      <c r="F52">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" t="s">
+        <v>118</v>
+      </c>
+      <c r="F53">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54" t="s">
+        <v>170</v>
+      </c>
+      <c r="D54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" t="s">
+        <v>171</v>
+      </c>
+      <c r="F54">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" t="s">
+        <v>144</v>
+      </c>
+      <c r="F55">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>122</v>
+      </c>
+      <c r="F57">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" t="s">
+        <v>125</v>
+      </c>
+      <c r="D58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" t="s">
+        <v>126</v>
+      </c>
+      <c r="F58">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
         <v>129</v>
       </c>
-      <c r="F48">
+      <c r="F59">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B60" t="s">
         <v>131</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C60" t="s">
         <v>125</v>
       </c>
-      <c r="D49" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" t="s">
         <v>132</v>
       </c>
-      <c r="F49">
+      <c r="F60">
         <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B61" t="s">
+        <v>173</v>
+      </c>
+      <c r="C61" t="s">
+        <v>174</v>
+      </c>
+      <c r="D61" t="s">
+        <v>196</v>
+      </c>
+      <c r="E61" t="s">
+        <v>175</v>
+      </c>
+      <c r="F61">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B62" t="s">
+        <v>173</v>
+      </c>
+      <c r="C62" t="s">
+        <v>174</v>
+      </c>
+      <c r="D62" t="s">
+        <v>196</v>
+      </c>
+      <c r="E62" t="s">
+        <v>177</v>
+      </c>
+      <c r="F62">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B63" t="s">
+        <v>173</v>
+      </c>
+      <c r="C63" t="s">
+        <v>174</v>
+      </c>
+      <c r="D63" t="s">
+        <v>196</v>
+      </c>
+      <c r="E63" t="s">
+        <v>179</v>
+      </c>
+      <c r="F63">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B64" t="s">
+        <v>181</v>
+      </c>
+      <c r="C64" t="s">
+        <v>182</v>
+      </c>
+      <c r="D64" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" t="s">
+        <v>183</v>
+      </c>
+      <c r="F64">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B65" t="s">
+        <v>181</v>
+      </c>
+      <c r="C65" t="s">
+        <v>185</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" t="s">
+        <v>186</v>
+      </c>
+      <c r="F65">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B66" t="s">
+        <v>181</v>
+      </c>
+      <c r="C66" t="s">
+        <v>188</v>
+      </c>
+      <c r="D66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" t="s">
+        <v>189</v>
+      </c>
+      <c r="F66">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B67" t="s">
+        <v>181</v>
+      </c>
+      <c r="C67" t="s">
+        <v>191</v>
+      </c>
+      <c r="D67" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" t="s">
+        <v>171</v>
+      </c>
+      <c r="F67">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/tables/TableS3_prey_stocks_all.xlsx
+++ b/tables/TableS3_prey_stocks_all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/Rutgers/projects/forage_fish/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E74E87-2B4F-8C49-8F3B-4354E21AE62D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7284C0EE-953A-3E48-BC92-F05CB8153ACE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25980" yWindow="4240" windowWidth="42340" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4880" yWindow="2200" windowWidth="42340" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableS3_prey_stocks_all" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="207">
   <si>
     <t>HERR2224IIIa</t>
   </si>
@@ -611,6 +611,36 @@
   </si>
   <si>
     <t>Index</t>
+  </si>
+  <si>
+    <t>Anker-Nilssen and Aavark 2006</t>
+  </si>
+  <si>
+    <t>RAM Legacy Database</t>
+  </si>
+  <si>
+    <t>ICES 2016</t>
+  </si>
+  <si>
+    <t>Furness 2007</t>
+  </si>
+  <si>
+    <t>Crawford et al. 2006</t>
+  </si>
+  <si>
+    <t>NEFSC 2018</t>
+  </si>
+  <si>
+    <t>Hendrickson and Showell 2016</t>
+  </si>
+  <si>
+    <t>MacCall et al. 2016</t>
+  </si>
+  <si>
+    <t>Mills et al. 2007</t>
+  </si>
+  <si>
+    <t>Reference</t>
   </si>
 </sst>
 </file>
@@ -1482,8 +1512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1494,6 +1524,7 @@
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38.6640625" bestFit="1" customWidth="1"/>
@@ -1521,6 +1552,9 @@
       <c r="F1" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -1548,6 +1582,9 @@
       <c r="F3">
         <v>29</v>
       </c>
+      <c r="G3" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -1568,6 +1605,9 @@
       <c r="F4">
         <v>26</v>
       </c>
+      <c r="G4" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -1588,6 +1628,9 @@
       <c r="F5">
         <v>43</v>
       </c>
+      <c r="G5" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -1608,6 +1651,9 @@
       <c r="F6">
         <v>44</v>
       </c>
+      <c r="G6" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -1628,6 +1674,9 @@
       <c r="F7">
         <v>36</v>
       </c>
+      <c r="G7" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -1648,6 +1697,9 @@
       <c r="F8">
         <v>29</v>
       </c>
+      <c r="G8" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -1668,6 +1720,9 @@
       <c r="F9">
         <v>56</v>
       </c>
+      <c r="G9" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -1688,6 +1743,9 @@
       <c r="F10">
         <v>28</v>
       </c>
+      <c r="G10" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
@@ -1708,6 +1766,9 @@
       <c r="F11">
         <v>70</v>
       </c>
+      <c r="G11" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -1728,6 +1789,9 @@
       <c r="F12">
         <v>40</v>
       </c>
+      <c r="G12" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
@@ -1748,6 +1812,9 @@
       <c r="F13">
         <v>59</v>
       </c>
+      <c r="G13" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -1768,6 +1835,9 @@
       <c r="F14">
         <v>57</v>
       </c>
+      <c r="G14" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
@@ -1788,6 +1858,9 @@
       <c r="F15">
         <v>60</v>
       </c>
+      <c r="G15" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -1808,9 +1881,12 @@
       <c r="F16">
         <v>35</v>
       </c>
+      <c r="G16" t="s">
+        <v>198</v>
+      </c>
       <c r="H16"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
@@ -1829,8 +1905,11 @@
       <c r="F17">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>48</v>
       </c>
@@ -1849,8 +1928,11 @@
       <c r="F18">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
@@ -1869,8 +1951,11 @@
       <c r="F19">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>54</v>
       </c>
@@ -1889,8 +1974,11 @@
       <c r="F20">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>51</v>
       </c>
@@ -1909,8 +1997,11 @@
       <c r="F21">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>56</v>
       </c>
@@ -1929,8 +2020,11 @@
       <c r="F22">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>60</v>
       </c>
@@ -1949,8 +2043,11 @@
       <c r="F23">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>62</v>
       </c>
@@ -1969,8 +2066,11 @@
       <c r="F24">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>149</v>
       </c>
@@ -1989,8 +2089,11 @@
       <c r="F25">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>153</v>
       </c>
@@ -2009,8 +2112,11 @@
       <c r="F26">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>64</v>
       </c>
@@ -2029,8 +2135,11 @@
       <c r="F27">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>71</v>
       </c>
@@ -2049,8 +2158,11 @@
       <c r="F28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>68</v>
       </c>
@@ -2069,8 +2181,11 @@
       <c r="F29">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>156</v>
       </c>
@@ -2089,13 +2204,16 @@
       <c r="F30">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>74</v>
       </c>
@@ -2114,8 +2232,11 @@
       <c r="F32">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>78</v>
       </c>
@@ -2134,8 +2255,11 @@
       <c r="F33">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>80</v>
       </c>
@@ -2154,8 +2278,11 @@
       <c r="F34">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>83</v>
       </c>
@@ -2174,13 +2301,16 @@
       <c r="F35">
         <v>53</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -2199,8 +2329,11 @@
       <c r="F37">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>163</v>
       </c>
@@ -2219,8 +2352,11 @@
       <c r="F38">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>164</v>
       </c>
@@ -2239,8 +2375,11 @@
       <c r="F39">
         <v>17</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>166</v>
       </c>
@@ -2259,8 +2398,11 @@
       <c r="F40">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>167</v>
       </c>
@@ -2279,13 +2421,16 @@
       <c r="F41">
         <v>33</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>93</v>
       </c>
@@ -2304,8 +2449,11 @@
       <c r="F43">
         <v>31</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>96</v>
       </c>
@@ -2324,8 +2472,11 @@
       <c r="F44">
         <v>40</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>86</v>
       </c>
@@ -2344,8 +2495,11 @@
       <c r="F45">
         <v>37</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>89</v>
       </c>
@@ -2364,8 +2518,11 @@
       <c r="F46">
         <v>37</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>90</v>
       </c>
@@ -2384,8 +2541,11 @@
       <c r="F47">
         <v>42</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>98</v>
       </c>
@@ -2404,8 +2564,11 @@
       <c r="F48">
         <v>50</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>104</v>
       </c>
@@ -2424,8 +2587,11 @@
       <c r="F49">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>101</v>
       </c>
@@ -2444,8 +2610,11 @@
       <c r="F50">
         <v>46</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>107</v>
       </c>
@@ -2464,8 +2633,11 @@
       <c r="F51">
         <v>62</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>111</v>
       </c>
@@ -2484,8 +2656,11 @@
       <c r="F52">
         <v>35</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>115</v>
       </c>
@@ -2504,8 +2679,11 @@
       <c r="F53">
         <v>34</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>169</v>
       </c>
@@ -2524,8 +2702,11 @@
       <c r="F54">
         <v>46</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>142</v>
       </c>
@@ -2544,13 +2725,16 @@
       <c r="F55">
         <v>39</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>119</v>
       </c>
@@ -2569,8 +2753,11 @@
       <c r="F57">
         <v>61</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>123</v>
       </c>
@@ -2589,8 +2776,11 @@
       <c r="F58">
         <v>33</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>127</v>
       </c>
@@ -2609,8 +2799,11 @@
       <c r="F59">
         <v>51</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>130</v>
       </c>
@@ -2629,8 +2822,11 @@
       <c r="F60">
         <v>23</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>172</v>
       </c>
@@ -2649,8 +2845,11 @@
       <c r="F61">
         <v>18</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>176</v>
       </c>
@@ -2669,8 +2868,11 @@
       <c r="F62">
         <v>15</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>178</v>
       </c>
@@ -2689,8 +2891,11 @@
       <c r="F63">
         <v>16</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G63" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>180</v>
       </c>
@@ -2709,8 +2914,11 @@
       <c r="F64">
         <v>38</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G64" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>184</v>
       </c>
@@ -2729,8 +2937,11 @@
       <c r="F65">
         <v>26</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G65" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>187</v>
       </c>
@@ -2749,8 +2960,11 @@
       <c r="F66">
         <v>52</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G66" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>190</v>
       </c>
@@ -2768,6 +2982,9 @@
       </c>
       <c r="F67">
         <v>46</v>
+      </c>
+      <c r="G67" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
